--- a/Dangky.xlsx
+++ b/Dangky.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4DE292-0936-4927-BC35-E36D324E9C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242B792-847F-44EA-9B83-C68E1143324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{628D8F71-B10E-4AB7-88CB-524B2532052C}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test analysic" sheetId="2" r:id="rId2"/>
+    <sheet name="test plan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>TC's No.</t>
   </si>
@@ -202,12 +203,6 @@
   </si>
   <si>
     <t>TC_36</t>
-  </si>
-  <si>
-    <t>Sản xuất</t>
-  </si>
-  <si>
-    <t>Chứng minh rằng người dùng nhập dữ liệu hợp lệ sẽ đăng ký thành công</t>
   </si>
   <si>
     <t>Verify that user entered valid data into registration form =&gt; success.</t>
@@ -940,7 +935,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,42 +951,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,7 +964,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1016,9 +974,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,21 +1034,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1060,6 +1052,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>286726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF212FE-786D-AC67-47ED-068C9FDBDCA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6992326" cy="6592220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1361,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6ACA65-C4D3-4DC3-9386-25B104190F18}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A21" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1412,11 +1453,11 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -1425,10 +1466,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
@@ -1440,9 +1481,9 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1451,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -1466,11 +1507,11 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1479,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>10</v>
@@ -1494,9 +1535,9 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1505,10 +1546,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>10</v>
@@ -1520,9 +1561,9 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1531,10 +1572,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -1546,9 +1587,9 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1557,10 +1598,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
@@ -1572,9 +1613,9 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1583,10 +1624,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -1598,9 +1639,9 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1609,10 +1650,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>10</v>
@@ -1624,9 +1665,9 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1635,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>10</v>
@@ -1650,11 +1691,11 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1663,10 +1704,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>10</v>
@@ -1678,9 +1719,9 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1689,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>10</v>
@@ -1704,9 +1745,9 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1715,10 +1756,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>10</v>
@@ -1730,9 +1771,9 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1741,10 +1782,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -1756,9 +1797,9 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1767,10 +1808,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>
@@ -1782,9 +1823,9 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1793,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>10</v>
@@ -1808,9 +1849,9 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1819,10 +1860,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>10</v>
@@ -1834,9 +1875,9 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1845,10 +1886,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
@@ -1860,9 +1901,9 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1871,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>10</v>
@@ -1886,9 +1927,9 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1897,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
@@ -1912,11 +1953,11 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1925,10 +1966,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>10</v>
@@ -1940,9 +1981,9 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1951,10 +1992,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>10</v>
@@ -1966,9 +2007,9 @@
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1977,10 +2018,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>10</v>
@@ -1992,9 +2033,9 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2003,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>10</v>
@@ -2018,9 +2059,9 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2029,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>10</v>
@@ -2044,11 +2085,11 @@
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2057,10 +2098,10 @@
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>10</v>
@@ -2072,9 +2113,9 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2083,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>10</v>
@@ -2098,9 +2139,9 @@
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2109,10 +2150,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>10</v>
@@ -2124,9 +2165,9 @@
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2135,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>10</v>
@@ -2150,9 +2191,9 @@
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2161,10 +2202,10 @@
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>10</v>
@@ -2176,9 +2217,9 @@
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2187,10 +2228,10 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>10</v>
@@ -2202,9 +2243,9 @@
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2213,10 +2254,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>10</v>
@@ -2228,9 +2269,9 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2239,10 +2280,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>10</v>
@@ -2254,9 +2295,9 @@
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2265,10 +2306,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>10</v>
@@ -2280,21 +2321,21 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>10</v>
@@ -2306,23 +2347,23 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>10</v>
@@ -2334,9 +2375,9 @@
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2345,10 +2386,10 @@
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>10</v>
@@ -2621,332 +2662,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEA6852-DBCF-4B95-B9C2-E183240B9033}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="28.1796875" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
     <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
+      <c r="A2" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="22">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="D9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23">
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="D4" s="31"/>
-      <c r="E4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="D5" s="31"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="23">
-        <v>6</v>
-      </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="D6" s="31"/>
-      <c r="E6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23">
-        <v>3</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="23">
-        <v>6</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" s="31"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23">
+      <c r="D16" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D9" s="31"/>
-      <c r="E9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23">
-        <v>3</v>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D10" s="31"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D11" s="31"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D12" s="31"/>
-      <c r="E12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="23">
-        <v>6</v>
-      </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23">
-        <v>3</v>
-      </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D15" s="31"/>
-      <c r="E15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" customHeight="1">
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23">
-        <v>1</v>
-      </c>
-      <c r="J16" s="20"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="4:10" ht="15.5">
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="20"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3" xr:uid="{A6E9AA00-3A7E-468E-A861-B6542146B25F}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3" xr:uid="{A6E9AA00-3A7E-468E-A861-B6542146B25F}">
       <formula1>"Passed,Failed,N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FA2DF7-605E-4BB7-ADAA-8280BC39B002}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dangky.xlsx
+++ b/Dangky.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242B792-847F-44EA-9B83-C68E1143324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD70894-F696-4326-88EA-0F9CD4D2B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{628D8F71-B10E-4AB7-88CB-524B2532052C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{628D8F71-B10E-4AB7-88CB-524B2532052C}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="166">
   <si>
     <t>TC's No.</t>
   </si>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>&lt;Mật khẩu&gt;: `password123</t>
-  </si>
-  <si>
-    <t>User is logged in 
-&lt;Mật khẩu&gt;: `password123`</t>
   </si>
   <si>
     <t>Verify that user registration fails when required fields are not entered.</t>
@@ -941,7 +937,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1016,6 +1011,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,16 +1029,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1402,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6ACA65-C4D3-4DC3-9386-25B104190F18}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1418,34 +1416,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1453,7 +1451,7 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1466,12 +1464,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1"/>
@@ -1481,9 +1479,9 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1492,12 +1490,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1507,11 +1505,11 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1520,12 +1518,12 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1"/>
@@ -1535,9 +1533,9 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1546,12 +1544,12 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1"/>
@@ -1561,9 +1559,9 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1572,12 +1570,12 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1"/>
@@ -1587,9 +1585,9 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1598,12 +1596,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1"/>
@@ -1613,9 +1611,9 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1624,12 +1622,12 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1"/>
@@ -1639,9 +1637,9 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1650,12 +1648,12 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1"/>
@@ -1665,9 +1663,9 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1676,12 +1674,12 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="1"/>
@@ -1691,11 +1689,11 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1704,12 +1702,12 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="1"/>
@@ -1719,9 +1717,9 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1730,12 +1728,12 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="1"/>
@@ -1745,9 +1743,9 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1756,12 +1754,12 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="1"/>
@@ -1771,23 +1769,23 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="36" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="1"/>
@@ -1797,9 +1795,9 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1808,12 +1806,12 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1"/>
@@ -1823,9 +1821,9 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1834,12 +1832,12 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1"/>
@@ -1849,9 +1847,9 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1860,12 +1858,12 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1"/>
@@ -1875,9 +1873,9 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1886,12 +1884,12 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1"/>
@@ -1901,9 +1899,9 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1912,12 +1910,12 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1"/>
@@ -1927,9 +1925,9 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1938,12 +1936,12 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="1"/>
@@ -1953,11 +1951,11 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1966,12 +1964,12 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1"/>
@@ -1981,9 +1979,9 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1992,12 +1990,12 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="1"/>
@@ -2007,9 +2005,9 @@
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2018,12 +2016,12 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="1"/>
@@ -2033,9 +2031,9 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2044,12 +2042,12 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="1"/>
@@ -2059,9 +2057,9 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2070,12 +2068,12 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="1"/>
@@ -2085,11 +2083,11 @@
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2098,12 +2096,12 @@
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="1"/>
@@ -2113,9 +2111,9 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2124,12 +2122,12 @@
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="1"/>
@@ -2139,9 +2137,9 @@
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2150,12 +2148,12 @@
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="1"/>
@@ -2165,9 +2163,9 @@
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2176,12 +2174,12 @@
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="1"/>
@@ -2191,9 +2189,9 @@
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2202,12 +2200,12 @@
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1"/>
@@ -2217,9 +2215,9 @@
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2228,12 +2226,12 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1"/>
@@ -2243,9 +2241,9 @@
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2254,12 +2252,12 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1"/>
@@ -2269,9 +2267,9 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
+      <c r="B33" s="24"/>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2280,12 +2278,12 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1"/>
@@ -2295,9 +2293,9 @@
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2306,12 +2304,12 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1"/>
@@ -2321,23 +2319,23 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="1"/>
@@ -2347,25 +2345,25 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="1"/>
@@ -2375,9 +2373,9 @@
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2386,12 +2384,12 @@
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1"/>
@@ -2405,7 +2403,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
@@ -2417,7 +2415,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
@@ -2429,7 +2427,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -2441,7 +2439,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -2453,7 +2451,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -2465,7 +2463,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -2477,7 +2475,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -2489,7 +2487,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -2501,7 +2499,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -2513,7 +2511,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -2525,7 +2523,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
@@ -2537,7 +2535,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
@@ -2549,7 +2547,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
@@ -2561,7 +2559,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -2573,7 +2571,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
@@ -2585,7 +2583,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
@@ -2597,7 +2595,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
@@ -2609,7 +2607,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
@@ -2621,7 +2619,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -2633,7 +2631,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="6"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
@@ -2662,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEA6852-DBCF-4B95-B9C2-E183240B9033}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2677,281 +2675,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5">
-      <c r="A2" s="33" t="s">
+      <c r="D3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10">
+      <c r="F12" s="10">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="11">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="4:10" ht="15.5">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
